--- a/data/typhoon/sea_level_pressure_record.xlsx
+++ b/data/typhoon/sea_level_pressure_record.xlsx
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>993.1</v>
+        <v>985.3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 07:20</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>991.7</v>
+        <v>983.2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:30</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>992</v>
+        <v>985.7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 04:40</t>
         </is>
       </c>
     </row>
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>993.3</v>
+        <v>987.7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:10</t>
         </is>
       </c>
     </row>
@@ -517,11 +517,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991.9</v>
+        <v>984.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 06:20</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>993</v>
+        <v>987.8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 04:50</t>
         </is>
       </c>
     </row>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>993.5</v>
+        <v>987.8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 05:00</t>
         </is>
       </c>
     </row>
@@ -575,11 +575,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>993.6</v>
+        <v>988.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:00</t>
         </is>
       </c>
     </row>
@@ -590,11 +590,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>994.1</v>
+        <v>989.2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:00</t>
         </is>
       </c>
     </row>
@@ -605,11 +605,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.2</v>
+        <v>982.2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 06:20</t>
         </is>
       </c>
     </row>
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>993.4</v>
+        <v>987.9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:00</t>
         </is>
       </c>
     </row>
